--- a/CASO PRÁCTICO.xlsx
+++ b/CASO PRÁCTICO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b47a44ecc067ad53/Documentos/Documentos/ANALISIS DE DATOS/MODULO 2/Material práctico módulo 2-20240629/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="13_ncr:1_{F0315A52-4DC1-5B40-B571-4ED3050E4A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7CBDB46-1761-4B1F-843D-1072515548ED}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{F0315A52-4DC1-5B40-B571-4ED3050E4A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7448ADE5-A788-4C69-8064-659EB862AF69}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="5" r:id="rId1"/>
@@ -3249,7 +3249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3273,108 +3273,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{D0F61A33-ED8E-6546-AD42-314FE9CE01B4}"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -4346,13 +4251,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>174</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>166</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16996,7 +16901,7 @@
     <dataField name="Suma de Total de Venta" fld="8" baseField="3" baseItem="1" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="35">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17033,7 +16938,7 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
         <item x="1"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -17308,8 +17213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9101DB43-AE94-4148-A6E5-1CE9218A13F2}">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
@@ -18543,7 +18448,7 @@
   </sheetPr>
   <dimension ref="A1:L1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
@@ -48623,13 +48528,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>$F$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48642,7 +48547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A415BB4-B14C-4337-82E9-A6ADEC7EF310}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -48657,7 +48562,7 @@
         <v>1008</v>
       </c>
       <c r="B1" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -48672,32 +48577,32 @@
       <c r="A4" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="B4">
-        <v>174</v>
+      <c r="B4" s="13">
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>1014</v>
       </c>
-      <c r="B5">
-        <v>170</v>
+      <c r="B5" s="13">
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
         <v>1012</v>
       </c>
-      <c r="B6">
-        <v>166</v>
+      <c r="B6" s="13">
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
         <v>1015</v>
       </c>
-      <c r="B7">
-        <v>510</v>
+      <c r="B7" s="13">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
